--- a/AS.xlsx
+++ b/AS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD974A-F79D-4F6C-A01D-39F1B2029BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71F09BD-E690-4A70-931E-8187F79A4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{53BA411E-2A41-4FEC-A342-AE8C41391E29}"/>
   </bookViews>
@@ -683,18 +683,18 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>36.65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
-        <v>553.98615800000005</v>
+      <c r="J3" s="9">
+        <v>555.40092300000003</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>21051.474004000003</v>
+        <v>20355.443827949999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -717,10 +717,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>422.1</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -728,11 +728,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="3">
-        <f>137.4+791.2</f>
-        <v>928.6</v>
+        <f>143.2+791.5</f>
+        <v>934.7</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>21557.974004000003</v>
+        <v>20986.743827949998</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
   <dimension ref="A1:AP252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +865,9 @@
       <c r="K3" s="4">
         <v>220</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>227</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="Q3">
@@ -908,7 +910,9 @@
       <c r="K4" s="4">
         <v>243</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>256</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="Q4">
@@ -951,7 +955,9 @@
       <c r="K5" s="4">
         <v>55</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>63</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="Q5">
@@ -1005,7 +1011,7 @@
       </c>
       <c r="L6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="3"/>
@@ -1074,7 +1080,9 @@
       <c r="K8" s="9">
         <v>404.9</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9">
+        <v>276.2</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1141,7 +1149,9 @@
       <c r="K9" s="9">
         <v>464.7</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9">
+        <v>395.4</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1208,7 +1218,9 @@
       <c r="K10" s="9">
         <v>446</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="9">
+        <v>410.2</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1275,7 +1287,9 @@
       <c r="K11" s="9">
         <v>156.9</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="9">
+        <v>154.5</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1342,7 +1356,9 @@
       <c r="K12" s="9">
         <v>779.9</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="9">
+        <v>595.4</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1409,7 +1425,9 @@
       <c r="K13" s="9">
         <v>692.6</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9">
+        <v>640.9</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1476,7 +1494,9 @@
       <c r="K14" s="9">
         <v>663.8</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="9">
+        <v>508.9</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1543,7 +1563,9 @@
       <c r="K15" s="9">
         <v>502.4</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9">
+        <v>413.7</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -1610,7 +1632,9 @@
       <c r="K16" s="9">
         <v>306.3</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="9">
+        <v>313.7</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -1677,7 +1701,9 @@
       <c r="K17" s="10">
         <v>1472.5</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="10">
+        <v>1236.3</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
@@ -1742,7 +1768,9 @@
       <c r="K18" s="9">
         <v>621.4</v>
       </c>
-      <c r="L18" s="9"/>
+      <c r="L18" s="9">
+        <v>513.4</v>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -1818,7 +1846,7 @@
       </c>
       <c r="L19" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>722.9</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1886,7 +1914,9 @@
       <c r="K20" s="9">
         <v>641.9</v>
       </c>
-      <c r="L20" s="9"/>
+      <c r="L20" s="9">
+        <v>697.8</v>
+      </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -1951,7 +1981,9 @@
       <c r="K21" s="9">
         <v>0.3</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="9">
+        <v>2.6</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -2016,7 +2048,9 @@
       <c r="K22" s="9">
         <v>5.3</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9">
+        <v>21.2</v>
+      </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2083,14 +2117,17 @@
         <v>176.69999999999996</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" ref="J23:K23" si="10">+J19-J20-J21+J22</f>
+        <f t="shared" ref="J23:L23" si="10">+J19-J20-J21+J22</f>
         <v>193.60000000000005</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="10"/>
         <v>214.20000000000005</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="9">
+        <f t="shared" si="10"/>
+        <v>43.700000000000017</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2159,17 +2196,19 @@
         <f>1.5+3.9</f>
         <v>5.4</v>
       </c>
-      <c r="L24" s="9"/>
+      <c r="L24" s="9">
+        <v>6.7</v>
+      </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9">
-        <f t="shared" ref="Q20:Q26" si="12">+SUM(C24:F24)</f>
+        <f t="shared" ref="Q24" si="12">+SUM(C24:F24)</f>
         <v>6.4</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" ref="R24:R30" si="13">+SUM(G24:J24)</f>
+        <f t="shared" ref="R24" si="13">+SUM(G24:J24)</f>
         <v>-5.2000000000000011</v>
       </c>
       <c r="S24" s="9"/>
@@ -2226,7 +2265,9 @@
       <c r="K25" s="9">
         <v>22</v>
       </c>
-      <c r="L25" s="9"/>
+      <c r="L25" s="9">
+        <v>30</v>
+      </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2292,7 +2333,9 @@
       <c r="K26" s="9">
         <v>0</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="9">
+        <v>-1.4</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2359,14 +2402,17 @@
         <v>128.89999999999995</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" ref="J27:K27" si="16">+J23+J24-J25-J26</f>
+        <f t="shared" ref="J27:L27" si="16">+J23+J24-J25-J26</f>
         <v>70.900000000000063</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="16"/>
         <v>197.60000000000005</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="9">
+        <f t="shared" si="16"/>
+        <v>21.800000000000018</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -2436,7 +2482,9 @@
       <c r="K28" s="9">
         <v>59.5</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="9">
+        <v>-0.6</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -2503,14 +2551,17 @@
         <v>56.199999999999946</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" ref="J29:K29" si="20">+J27-J28</f>
+        <f t="shared" ref="J29:L29" si="20">+J27-J28</f>
         <v>17.100000000000065</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="20"/>
         <v>138.10000000000005</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9">
+        <f t="shared" si="20"/>
+        <v>22.40000000000002</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -2580,7 +2631,9 @@
       <c r="K30" s="9">
         <v>3.5</v>
       </c>
-      <c r="L30" s="9"/>
+      <c r="L30" s="9">
+        <v>4.2</v>
+      </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -2654,7 +2707,10 @@
         <f>+K29-K30</f>
         <v>134.60000000000005</v>
       </c>
-      <c r="L31" s="9"/>
+      <c r="L31" s="9">
+        <f>+L29-L30</f>
+        <v>18.200000000000021</v>
+      </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -2766,14 +2822,17 @@
         <v>0.1104048258068074</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" ref="J33:K33" si="25">+J31/J34</f>
+        <f t="shared" ref="J33:L33" si="25">+J31/J34</f>
         <v>2.9669793367748994E-2</v>
       </c>
       <c r="K33" s="11">
         <f t="shared" si="25"/>
         <v>0.24296635945911133</v>
       </c>
-      <c r="L33" s="9"/>
+      <c r="L33" s="11">
+        <f t="shared" si="25"/>
+        <v>3.2769120911237702E-2</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -2846,7 +2905,9 @@
       <c r="K34" s="9">
         <v>553.98615800000005</v>
       </c>
-      <c r="L34" s="9"/>
+      <c r="L34" s="9">
+        <v>555.40092300000003</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -2948,7 +3009,10 @@
         <f>+K8/G8-1</f>
         <v>0.12285080421519678</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="6">
+        <f>+L8/H8-1</f>
+        <v>0.19051724137931036</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -2995,7 +3059,7 @@
         <v>5.464480874316946E-3</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" ref="I37:K39" si="28">+I9/E9-1</f>
+        <f t="shared" ref="I37:L39" si="28">+I9/E9-1</f>
         <v>7.2527472527472492E-2</v>
       </c>
       <c r="J37" s="6">
@@ -3006,7 +3070,10 @@
         <f t="shared" si="28"/>
         <v>0.12002892263195952</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="6">
+        <f t="shared" si="28"/>
+        <v>7.4456521739130421E-2</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3064,7 +3131,10 @@
         <f t="shared" si="28"/>
         <v>0.43132220795892162</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="6">
+        <f t="shared" si="28"/>
+        <v>0.41937716262975777</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3122,7 +3192,10 @@
         <f t="shared" si="28"/>
         <v>0.4886148007590132</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="6">
+        <f t="shared" si="28"/>
+        <v>0.45754716981132071</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3180,7 +3253,10 @@
         <f>+K14/G14-1</f>
         <v>0.28369754399535863</v>
       </c>
-      <c r="L40" s="3"/>
+      <c r="L40" s="6">
+        <f>+L14/H14-1</f>
+        <v>0.25036855036855021</v>
+      </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3227,7 +3303,7 @@
         <v>0.10948905109489049</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" ref="I41:K43" si="30">+I15/E15-1</f>
+        <f t="shared" ref="I41:L43" si="30">+I15/E15-1</f>
         <v>7.8787878787878851E-2</v>
       </c>
       <c r="J41" s="6">
@@ -3238,7 +3314,10 @@
         <f t="shared" si="30"/>
         <v>0.25037332005973112</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="6">
+        <f t="shared" si="30"/>
+        <v>0.36085526315789473</v>
+      </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -3296,7 +3375,10 @@
         <f t="shared" si="30"/>
         <v>0.11951754385964897</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="6">
+        <f t="shared" si="30"/>
+        <v>0.1084805653710248</v>
+      </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -3354,7 +3436,10 @@
         <f t="shared" si="30"/>
         <v>0.23480083857442358</v>
       </c>
-      <c r="L43" s="3"/>
+      <c r="L43" s="7">
+        <f t="shared" si="30"/>
+        <v>0.24401287985510156</v>
+      </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3424,7 +3509,10 @@
         <f>+K19/K17</f>
         <v>0.57799660441426148</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="6">
+        <f>+L19/L17</f>
+        <v>0.58472862573808948</v>
+      </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3494,7 +3582,10 @@
         <f>+K23/K17</f>
         <v>0.14546689303904928</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="6">
+        <f>+L23/L17</f>
+        <v>3.5347407587155238E-2</v>
+      </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3564,7 +3655,10 @@
         <f>+K28/K27</f>
         <v>0.30111336032388658</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="6">
+        <f>+L28/L27</f>
+        <v>-2.7522935779816491E-2</v>
+      </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>

--- a/AS.xlsx
+++ b/AS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C07FE62-4FE8-4347-9A90-90C192A9E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358139E9-BA89-45F3-B921-5508A295B596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{53BA411E-2A41-4FEC-A342-AE8C41391E29}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{53BA411E-2A41-4FEC-A342-AE8C41391E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -252,13 +252,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -315,27 +321,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -674,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8BD558-1695-45E0-85FC-8A38EE29A2D5}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -697,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>36.65</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -705,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="6">
-        <v>555.40092300000003</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>58</v>
+        <v>556.19940199999996</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -720,7 +729,7 @@
       </c>
       <c r="J4" s="7">
         <f>+J2*J3</f>
-        <v>20355.443827949999</v>
+        <v>19049.829518499999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -731,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="7">
-        <v>303.39999999999998</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>58</v>
+        <v>353.3</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -742,11 +751,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="7">
-        <f>143.2+791.5</f>
-        <v>934.7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>58</v>
+        <f>791.9+259.5</f>
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -755,7 +764,7 @@
       </c>
       <c r="J7" s="7">
         <f>+J4-J5+J6</f>
-        <v>20986.743827949998</v>
+        <v>19747.929518500001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -780,11 +789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC70E52E-A4D2-4CB7-BF9B-AFB47E0B1996}">
   <dimension ref="A1:AP252"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -883,7 +892,9 @@
       <c r="L3" s="3">
         <v>227</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>275</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="Q3" s="2">
         <f>+F3</f>
@@ -928,7 +939,9 @@
       <c r="L4" s="3">
         <v>256</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>285</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="Q4" s="2">
         <f t="shared" ref="Q4:Q5" si="0">+F4</f>
@@ -973,7 +986,9 @@
       <c r="L5" s="3">
         <v>63</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>71</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
@@ -1030,7 +1045,7 @@
       </c>
       <c r="M6" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="N6" s="3"/>
       <c r="P6" s="4">
@@ -1098,7 +1113,9 @@
       <c r="L8" s="6">
         <v>276.2</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>528.5</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1167,7 +1184,9 @@
       <c r="L9" s="6">
         <v>395.4</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6">
+        <v>574.20000000000005</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1236,7 +1255,9 @@
       <c r="L10" s="6">
         <v>410.2</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6">
+        <v>461.5</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1305,7 +1326,9 @@
       <c r="L11" s="6">
         <v>154.5</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6">
+        <v>192.1</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1374,7 +1397,9 @@
       <c r="L12" s="6">
         <v>595.4</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6">
+        <v>1033.8</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1443,7 +1468,9 @@
       <c r="L13" s="6">
         <v>640.9</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6">
+        <v>722.5</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1512,7 +1539,9 @@
       <c r="L14" s="6">
         <v>508.9</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6">
+        <v>683.3</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1581,7 +1610,9 @@
       <c r="L15" s="6">
         <v>413.7</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6">
+        <v>723.5</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1650,7 +1681,9 @@
       <c r="L16" s="6">
         <v>313.7</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>349.5</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -1719,7 +1752,9 @@
       <c r="L17" s="8">
         <v>1236.3</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="8">
+        <v>1756.3</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -1786,7 +1821,9 @@
       <c r="L18" s="6">
         <v>513.4</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6">
+        <v>758.1</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -1852,7 +1889,7 @@
         <v>747.3</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" ref="J19:L19" si="7">+J17-J18</f>
+        <f t="shared" ref="J19:M19" si="7">+J17-J18</f>
         <v>917.5</v>
       </c>
       <c r="K19" s="6">
@@ -1863,7 +1900,10 @@
         <f t="shared" si="7"/>
         <v>722.9</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6">
+        <f t="shared" si="7"/>
+        <v>998.19999999999993</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -1932,7 +1972,9 @@
       <c r="L20" s="6">
         <v>697.8</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6">
+        <v>776.6</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -1999,7 +2041,9 @@
       <c r="L21" s="6">
         <v>2.6</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="6">
+        <v>10.199999999999999</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -2066,7 +2110,9 @@
       <c r="L22" s="6">
         <v>21.2</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="6">
+        <v>4.5</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2132,7 +2178,7 @@
         <v>176.69999999999996</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" ref="J23:L23" si="10">+J19-J20-J21+J22</f>
+        <f t="shared" ref="J23:M23" si="10">+J19-J20-J21+J22</f>
         <v>193.60000000000005</v>
       </c>
       <c r="K23" s="6">
@@ -2143,7 +2189,10 @@
         <f t="shared" si="10"/>
         <v>43.700000000000017</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6">
+        <f t="shared" si="10"/>
+        <v>215.89999999999992</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2214,7 +2263,9 @@
       <c r="L24" s="6">
         <v>6.7</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="6">
+        <v>-25.6</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2283,7 +2334,9 @@
       <c r="L25" s="6">
         <v>30</v>
       </c>
-      <c r="M25" s="6"/>
+      <c r="M25" s="6">
+        <v>-5.9</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2351,7 +2404,9 @@
       <c r="L26" s="6">
         <v>-1.4</v>
       </c>
-      <c r="M26" s="6"/>
+      <c r="M26" s="6">
+        <v>-1.5</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2417,7 +2472,7 @@
         <v>128.89999999999995</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" ref="J27:L27" si="16">+J23+J24-J25-J26</f>
+        <f t="shared" ref="J27:M27" si="16">+J23+J24-J25-J26</f>
         <v>70.900000000000063</v>
       </c>
       <c r="K27" s="6">
@@ -2428,7 +2483,10 @@
         <f t="shared" si="16"/>
         <v>21.800000000000018</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="6">
+        <f t="shared" si="16"/>
+        <v>197.69999999999993</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6">
@@ -2500,7 +2558,9 @@
       <c r="L28" s="6">
         <v>-0.6</v>
       </c>
-      <c r="M28" s="6"/>
+      <c r="M28" s="6">
+        <v>51.3</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2566,7 +2626,7 @@
         <v>56.199999999999946</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" ref="J29:L29" si="20">+J27-J28</f>
+        <f t="shared" ref="J29:M29" si="20">+J27-J28</f>
         <v>17.100000000000065</v>
       </c>
       <c r="K29" s="6">
@@ -2577,7 +2637,10 @@
         <f t="shared" si="20"/>
         <v>22.40000000000002</v>
       </c>
-      <c r="M29" s="6"/>
+      <c r="M29" s="6">
+        <f t="shared" si="20"/>
+        <v>146.39999999999992</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6">
@@ -2649,7 +2712,9 @@
       <c r="L30" s="6">
         <v>4.2</v>
       </c>
-      <c r="M30" s="6"/>
+      <c r="M30" s="6">
+        <v>3.3</v>
+      </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2726,7 +2791,10 @@
         <f>+L29-L30</f>
         <v>18.200000000000021</v>
       </c>
-      <c r="M31" s="6"/>
+      <c r="M31" s="6">
+        <f>+M29-M30</f>
+        <v>143.09999999999991</v>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6">
@@ -2837,7 +2905,7 @@
         <v>0.1104048258068074</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" ref="J33:L33" si="25">+J31/J34</f>
+        <f t="shared" ref="J33:M33" si="25">+J31/J34</f>
         <v>2.9669793367748994E-2</v>
       </c>
       <c r="K33" s="9">
@@ -2848,7 +2916,10 @@
         <f t="shared" si="25"/>
         <v>3.2769120911237702E-2</v>
       </c>
-      <c r="M33" s="6"/>
+      <c r="M33" s="9">
+        <f t="shared" si="25"/>
+        <v>0.25728183001534388</v>
+      </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="9" t="e">
@@ -2923,7 +2994,9 @@
       <c r="L34" s="6">
         <v>555.40092300000003</v>
       </c>
-      <c r="M34" s="6"/>
+      <c r="M34" s="6">
+        <v>556.19940199999996</v>
+      </c>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -3028,7 +3101,10 @@
         <f>+L8/H8-1</f>
         <v>0.19051724137931036</v>
       </c>
-      <c r="M36" s="7"/>
+      <c r="M36" s="10">
+        <f>+M8/I8-1</f>
+        <v>0.23193473193473202</v>
+      </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -3074,7 +3150,7 @@
         <v>5.464480874316946E-3</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" ref="I37:L39" si="28">+I9/E9-1</f>
+        <f t="shared" ref="I37:M39" si="28">+I9/E9-1</f>
         <v>7.2527472527472492E-2</v>
       </c>
       <c r="J37" s="10">
@@ -3089,7 +3165,10 @@
         <f t="shared" si="28"/>
         <v>7.4456521739130421E-2</v>
       </c>
-      <c r="M37" s="7"/>
+      <c r="M37" s="10">
+        <f t="shared" si="28"/>
+        <v>0.17663934426229511</v>
+      </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -3150,7 +3229,10 @@
         <f t="shared" si="28"/>
         <v>0.41937716262975777</v>
       </c>
-      <c r="M38" s="7"/>
+      <c r="M38" s="10">
+        <f t="shared" si="28"/>
+        <v>0.47444089456868999</v>
+      </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -3211,7 +3293,10 @@
         <f t="shared" si="28"/>
         <v>0.45754716981132071</v>
       </c>
-      <c r="M39" s="7"/>
+      <c r="M39" s="10">
+        <f t="shared" si="28"/>
+        <v>0.53679999999999994</v>
+      </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -3272,7 +3357,10 @@
         <f>+L14/H14-1</f>
         <v>0.25036855036855021</v>
       </c>
-      <c r="M40" s="7"/>
+      <c r="M40" s="10">
+        <f>+M14/I14-1</f>
+        <v>0.31403846153846149</v>
+      </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -3318,7 +3406,7 @@
         <v>0.10948905109489049</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" ref="I41:L43" si="30">+I15/E15-1</f>
+        <f t="shared" ref="I41:M43" si="30">+I15/E15-1</f>
         <v>7.8787878787878851E-2</v>
       </c>
       <c r="J41" s="10">
@@ -3333,7 +3421,10 @@
         <f t="shared" si="30"/>
         <v>0.36085526315789473</v>
       </c>
-      <c r="M41" s="7"/>
+      <c r="M41" s="10">
+        <f t="shared" si="30"/>
+        <v>0.35486891385767794</v>
+      </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -3394,7 +3485,10 @@
         <f t="shared" si="30"/>
         <v>0.1084805653710248</v>
       </c>
-      <c r="M42" s="7"/>
+      <c r="M42" s="10">
+        <f t="shared" si="30"/>
+        <v>0.74750000000000005</v>
+      </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -3455,7 +3549,10 @@
         <f t="shared" si="30"/>
         <v>0.24401287985510156</v>
       </c>
-      <c r="M43" s="7"/>
+      <c r="M43" s="12">
+        <f t="shared" si="30"/>
+        <v>0.29731127197518092</v>
+      </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -3528,7 +3625,10 @@
         <f>+L19/L17</f>
         <v>0.58472862573808948</v>
       </c>
-      <c r="M44" s="7"/>
+      <c r="M44" s="10">
+        <f>+M19/M17</f>
+        <v>0.56835392586687916</v>
+      </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -3601,7 +3701,10 @@
         <f>+L23/L17</f>
         <v>3.5347407587155238E-2</v>
       </c>
-      <c r="M45" s="7"/>
+      <c r="M45" s="10">
+        <f>+M23/M17</f>
+        <v>0.12292888458691563</v>
+      </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -3674,7 +3777,10 @@
         <f>+L28/L27</f>
         <v>-2.7522935779816491E-2</v>
       </c>
-      <c r="M46" s="7"/>
+      <c r="M46" s="10">
+        <f>+M28/M27</f>
+        <v>0.25948406676783015</v>
+      </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
